--- a/data/supersite_venues_all_years.xlsx
+++ b/data/supersite_venues_all_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/blueT7/bcdp/data/supersiteDB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69426B5-3448-764A-A03B-49CCBE07E503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666DA041-459E-7943-B58C-49C7F2AEA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="500" windowWidth="22360" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22360" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="venues_all_known" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>geometry</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>100 McConnell Dr, Lyons, CO 80540</t>
+  </si>
+  <si>
+    <t>geometry-invalid</t>
   </si>
 </sst>
 </file>
@@ -688,16 +688,16 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB5BB1E-7EF7-EA4C-80A4-9E907A862B21}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1030,56 +1030,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f t="shared" ref="D2:D29" si="0">HYPERLINK(K2)</f>
+        <v>http://www.allensparkfire.com/</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f t="shared" ref="E2:E30" si="1">HYPERLINK(J2)</f>
+        <v>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <f>HYPERLINK(K2)</f>
-        <v>http://www.allensparkfire.com/</v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>HYPERLINK(J2)</f>
-        <v>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="H2" s="1">
         <v>40.197127776109753</v>
@@ -1088,35 +1088,35 @@
         <v>-105.52791417859341</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ams.svvsd.org/</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <f>HYPERLINK(K3)</f>
-        <v>https://ams.svvsd.org/</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f>HYPERLINK(J3)</f>
-        <v>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="1">
         <v>40.144482669915391</v>
@@ -1125,35 +1125,35 @@
         <v>-105.1626179175455</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://anm.bvsd.org/</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/QtidHUByDwtU8Z599</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f>HYPERLINK(K4)</f>
-        <v>http://anm.bvsd.org/</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f>HYPERLINK(J4)</f>
-        <v>https://maps.app.goo.gl/QtidHUByDwtU8Z599</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="1">
         <v>39.989558839688549</v>
@@ -1162,35 +1162,35 @@
         <v>-105.1033574278846</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://boh.bvsd.org/</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f>HYPERLINK(K5)</f>
-        <v>http://boh.bvsd.org/</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>HYPERLINK(J5)</f>
-        <v>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H5" s="1">
         <v>40.014115906401713</v>
@@ -1199,35 +1199,35 @@
         <v>-105.2728711769165</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://bes.svvsd.org/</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/QefhqxMskS5oyZY87</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f>HYPERLINK(K6)</f>
-        <v>http://bes.svvsd.org/</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>HYPERLINK(J6)</f>
-        <v>https://maps.app.goo.gl/QefhqxMskS5oyZY87</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H6" s="1">
         <v>40.146653991314899</v>
@@ -1236,35 +1236,35 @@
         <v>-105.108633248163</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://cam.bvsd.org/</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f>HYPERLINK(K7)</f>
-        <v>http://cam.bvsd.org/</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f>HYPERLINK(J7)</f>
-        <v>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H7" s="1">
         <v>40.022871175935698</v>
@@ -1273,35 +1273,35 @@
         <v>-105.27915794703939</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://ceh.bvsd.org/</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f>HYPERLINK(K8)</f>
-        <v>http://ceh.bvsd.org/</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f>HYPERLINK(J8)</f>
-        <v>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H8" s="1">
         <v>39.986359812637062</v>
@@ -1310,35 +1310,35 @@
         <v>-105.1125276640655</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://cem.bvsd.org/</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f>HYPERLINK(K9)</f>
-        <v>http://cem.bvsd.org/</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>HYPERLINK(J9)</f>
-        <v>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H9" s="1">
         <v>40.045067962640239</v>
@@ -1347,35 +1347,35 @@
         <v>-105.26714722908341</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://el8.bvsd.org/</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f>HYPERLINK(K10)</f>
-        <v>http://el8.bvsd.org/</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f>HYPERLINK(J10)</f>
-        <v>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>39.921698179021</v>
@@ -1384,32 +1384,32 @@
         <v>-105.161197194222</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f>HYPERLINK(K11)</f>
-        <v/>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f>HYPERLINK(J11)</f>
-        <v>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H11" s="1">
         <v>39.942661720140457</v>
@@ -1418,32 +1418,32 @@
         <v>-105.24931012290369</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ems.svvsd.org/</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f>HYPERLINK(K12)</f>
-        <v>https://ems.svvsd.org/</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f>HYPERLINK(J12)</f>
-        <v>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>40.051017076484378</v>
@@ -1452,32 +1452,32 @@
         <v>-105.0529688258069</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://www.frasiermeadows.org/</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f>HYPERLINK(K13)</f>
-        <v>http://www.frasiermeadows.org/</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f>HYPERLINK(J13)</f>
-        <v>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="1">
         <v>39.994563965901541</v>
@@ -1486,35 +1486,35 @@
         <v>-105.2338815741678</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://ghe.bvsd.org/</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f>HYPERLINK(K14)</f>
-        <v>http://ghe.bvsd.org/</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f>HYPERLINK(J14)</f>
-        <v>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H14" s="1">
         <v>40.063366273762</v>
@@ -1523,35 +1523,35 @@
         <v>-105.41247282546099</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ipes.svvsd.org/</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f>HYPERLINK(K15)</f>
-        <v>https://ipes.svvsd.org/</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f>HYPERLINK(J15)</f>
-        <v>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H15" s="1">
         <v>40.143271873438337</v>
@@ -1560,35 +1560,35 @@
         <v>-105.118010493892</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://jae.bvsd.org/</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f>HYPERLINK(K16)</f>
-        <v>http://jae.bvsd.org/</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f>HYPERLINK(J16)</f>
-        <v>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H16" s="1">
         <v>40.116431813743098</v>
@@ -1597,35 +1597,35 @@
         <v>-105.38780226119199</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://lpms.svvsd.org/</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/44xqEDG33jkv1pN28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f>HYPERLINK(K17)</f>
-        <v>http://lpms.svvsd.org/</v>
-      </c>
-      <c r="E17" s="5" t="str">
-        <f>HYPERLINK(J17)</f>
-        <v>https://maps.app.goo.gl/44xqEDG33jkv1pN28</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H17" s="1">
         <v>40.183991957217742</v>
@@ -1634,35 +1634,35 @@
         <v>-105.117518880356</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://lom.bvsd.org/</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/VT5YaQMB64667476A</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f>HYPERLINK(K18)</f>
-        <v>http://lom.bvsd.org/</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f>HYPERLINK(J18)</f>
-        <v>https://maps.app.goo.gl/VT5YaQMB64667476A</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H18" s="1">
         <v>39.984124672484498</v>
@@ -1671,35 +1671,35 @@
         <v>-105.1325745422844</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://lmshs.svvsd.org/</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f>HYPERLINK(K19)</f>
-        <v>https://lmshs.svvsd.org/</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f>HYPERLINK(J19)</f>
-        <v>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H19" s="1">
         <v>40.2147599852984</v>
@@ -1708,35 +1708,35 @@
         <v>-105.264461148759</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://mam.bvsd.org/</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="8" t="str">
-        <f>HYPERLINK(K20)</f>
-        <v>http://mam.bvsd.org/</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f>HYPERLINK(J20)</f>
-        <v>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H20" s="1">
         <v>39.994103425303791</v>
@@ -1745,35 +1745,35 @@
         <v>-105.2273572175253</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://moh.bvsd.org/</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="8" t="str">
-        <f>HYPERLINK(K21)</f>
-        <v>http://moh.bvsd.org/</v>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f>HYPERLINK(J21)</f>
-        <v>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H21" s="1">
         <v>39.952022057306898</v>
@@ -1782,35 +1782,35 @@
         <v>-105.141776992356</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://mo8.bvsd.org/</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f>HYPERLINK(K22)</f>
-        <v>http://mo8.bvsd.org/</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f>HYPERLINK(J22)</f>
-        <v>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H22" s="1">
         <v>39.951425990709048</v>
@@ -1819,35 +1819,35 @@
         <v>-105.1435104051174</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://neh.bvsd.org/</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f>HYPERLINK(K23)</f>
-        <v>https://neh.bvsd.org/</v>
-      </c>
-      <c r="E23" s="5" t="str">
-        <f>HYPERLINK(J23)</f>
-        <v>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H23" s="1">
         <v>39.953838493833032</v>
@@ -1856,35 +1856,35 @@
         <v>-105.5233421126253</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://nhs.svvsd.org/</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f>HYPERLINK(K24)</f>
-        <v>https://nhs.svvsd.org/</v>
-      </c>
-      <c r="E24" s="5" t="str">
-        <f>HYPERLINK(J24)</f>
-        <v>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H24" s="1">
         <v>40.103695062172719</v>
@@ -1893,35 +1893,35 @@
         <v>-105.1442414652976</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://schs.svvsd.org/</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="8" t="str">
-        <f>HYPERLINK(K25)</f>
-        <v>http://schs.svvsd.org/</v>
-      </c>
-      <c r="E25" s="5" t="str">
-        <f>HYPERLINK(J25)</f>
-        <v>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H25" s="1">
         <v>40.151371607549947</v>
@@ -1930,35 +1930,35 @@
         <v>-105.16656999308471</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://shm.bvsd.org/</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="8" t="str">
-        <f>HYPERLINK(K26)</f>
-        <v>http://shm.bvsd.org/</v>
-      </c>
-      <c r="E26" s="5" t="str">
-        <f>HYPERLINK(J26)</f>
-        <v>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H26" s="1">
         <v>39.974133893699872</v>
@@ -1967,35 +1967,35 @@
         <v>-105.2452260530946</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://sms.svvsd.org/</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="8" t="str">
-        <f>HYPERLINK(K27)</f>
-        <v>http://sms.svvsd.org/</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <f>HYPERLINK(J27)</f>
-        <v>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H27" s="1">
         <v>40.144580730699623</v>
@@ -2004,35 +2004,35 @@
         <v>-105.11990671854279</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://tpk8.svvsd.org/</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="8" t="str">
-        <f>HYPERLINK(K28)</f>
-        <v>http://tpk8.svvsd.org/</v>
-      </c>
-      <c r="E28" s="5" t="str">
-        <f>HYPERLINK(J28)</f>
-        <v>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H28" s="1">
         <v>40.180911331524733</v>
@@ -2041,35 +2041,35 @@
         <v>-105.0857347392096</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://trms.svvsd.org/</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="8" t="str">
-        <f>HYPERLINK(K29)</f>
-        <v>https://trms.svvsd.org/</v>
-      </c>
-      <c r="E29" s="5" t="str">
-        <f>HYPERLINK(J29)</f>
-        <v>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H29" s="1">
         <v>40.176931177836657</v>
@@ -2078,25 +2078,25 @@
         <v>-105.0576162268638</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E30" s="7" t="str">
-        <f>HYPERLINK(J30)</f>
-        <v/>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H30" s="1">
         <v>40.073398440992797</v>

--- a/data/supersite_venues_all_years.xlsx
+++ b/data/supersite_venues_all_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/blueT7/bcdp/data/supersiteDB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666DA041-459E-7943-B58C-49C7F2AEA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2150D-1859-E84E-A290-3E8E9E82F931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22360" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="500" windowWidth="29380" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="venues_all_known" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="188">
   <si>
     <t>Venue</t>
   </si>
@@ -579,6 +579,24 @@
   </si>
   <si>
     <t>geometry-invalid</t>
+  </si>
+  <si>
+    <t>700 20th St, Boulder, CO 80302</t>
+  </si>
+  <si>
+    <t>http://nvh.bvsd.org/</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
+  </si>
+  <si>
+    <t>New Vista High School</t>
+  </si>
+  <si>
+    <t>POINT (-105.2665043792843 40.00119784626813)</t>
+  </si>
+  <si>
+    <t>New Vista</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB5BB1E-7EF7-EA4C-80A4-9E907A862B21}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1068,11 +1086,11 @@
         <v>124</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D29" si="0">HYPERLINK(K2)</f>
+        <f t="shared" ref="D2:D30" si="0">HYPERLINK(K2)</f>
         <v>http://www.allensparkfire.com/</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f t="shared" ref="E2:E30" si="1">HYPERLINK(J2)</f>
+        <f t="shared" ref="E2:E31" si="1">HYPERLINK(J2)</f>
         <v>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1864,247 +1882,277 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://nhs.svvsd.org/</v>
-      </c>
-      <c r="E24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</v>
+        <v>130</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1">
-        <v>40.103695062172719</v>
+        <v>40.001197846268099</v>
       </c>
       <c r="I24" s="1">
-        <v>-105.1442414652976</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>-105.266504379284</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://schs.svvsd.org/</v>
+        <v>https://nhs.svvsd.org/</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</v>
+        <v>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1">
-        <v>40.151371607549947</v>
+        <v>40.103695062172719</v>
       </c>
       <c r="I25" s="1">
-        <v>-105.16656999308471</v>
+        <v>-105.1442414652976</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://shm.bvsd.org/</v>
+        <v>http://schs.svvsd.org/</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</v>
+        <v>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1">
-        <v>39.974133893699872</v>
+        <v>40.151371607549947</v>
       </c>
       <c r="I26" s="1">
-        <v>-105.2452260530946</v>
+        <v>-105.16656999308471</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://sms.svvsd.org/</v>
+        <v>http://shm.bvsd.org/</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</v>
+        <v>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1">
-        <v>40.144580730699623</v>
+        <v>39.974133893699872</v>
       </c>
       <c r="I27" s="1">
-        <v>-105.11990671854279</v>
+        <v>-105.2452260530946</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>http://tpk8.svvsd.org/</v>
+        <v>http://sms.svvsd.org/</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</v>
+        <v>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="1">
-        <v>40.180911331524733</v>
+        <v>40.144580730699623</v>
       </c>
       <c r="I28" s="1">
-        <v>-105.0857347392096</v>
+        <v>-105.11990671854279</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>https://trms.svvsd.org/</v>
+        <v>http://tpk8.svvsd.org/</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</v>
+        <v>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H29" s="1">
-        <v>40.176931177836657</v>
+        <v>40.180911331524733</v>
       </c>
       <c r="I29" s="1">
-        <v>-105.0576162268638</v>
+        <v>-105.0857347392096</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://trms.svvsd.org/</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1">
+        <v>40.176931177836657</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-105.0576162268638</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E31" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>40.073398440992797</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <v>-105.506518983446</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
